--- a/static/uploads/mau/hopdong/nt1/duoi_o2/hdvth.xlsx
+++ b/static/uploads/mau/hopdong/nt1/duoi_o2/hdvth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\mau\hopdong\nt1\duoi_o2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NS7000~1.THU\AppData\Local\Temp\Rar$DIa2268.3471\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E0AF35-657C-4620-9C67-44CED05DC7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857F8A54-2E05-46FD-AAC2-B671B951FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="158">
   <si>
     <t>CÔNG TY CỔ PHẦN SẢN XUẤT NAM THUẬN</t>
   </si>
@@ -227,12 +227,6 @@
     <t>- Khen thưởng :</t>
   </si>
   <si>
-    <t>Người lao động được khuyến khích bằng vật chất và tinh thần khi có thành tích trong công tác hoặc theo quy định của công ty</t>
-  </si>
-  <si>
-    <t>Nếu người lao động không còn tiếp tục làm việc hoặc có đơn xin nghỉ việc đến ngày phát thưởng thì sẽ không được lĩnh thưởng_x000D_</t>
-  </si>
-  <si>
     <t>- Tiền hỗ trợ xăng xe/ nhà ở, con nhỏ, thăm hỏi hiếu hỉ, ...:</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
     <t>chỉnh mức lương tối thiểu vùng (nếu có). Trong trường hợp đó, công ty sẽ thông báo cho người lao động biết và mức lương, phụ</t>
   </si>
   <si>
-    <t>cấp (nếu có) sẽ tự động thay đổi theo quy định mới</t>
-  </si>
-  <si>
     <t>6. TRANG BỊ BẢO HỘ LAO ĐỘNG</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t xml:space="preserve">Người lao động sẽ được tham gia BHXH, BHYT, BHTN, BHTNLĐ - BNN và hưởng các chế độ Bảo hiểm này theo quy định </t>
   </si>
   <si>
-    <t xml:space="preserve">của pháp luật về lao động và quy định của bảo hiểm	</t>
-  </si>
-  <si>
     <t>8. ĐÀO TẠO, BỒI DƯỠNG, NÂNG CAO TRÌNH ĐỘ KỸ NĂNG NGHỀ</t>
   </si>
   <si>
@@ -495,6 +483,18 @@
   </si>
   <si>
     <t>Hợp đồng không xác định thời hạn</t>
+  </si>
+  <si>
+    <t>của pháp luật về lao động và quy định của bảo hiểm	.</t>
+  </si>
+  <si>
+    <t>cấp (nếu có) sẽ tự động thay đổi theo quy định mới.</t>
+  </si>
+  <si>
+    <t>Người lao động được khuyến khích bằng vật chất và tinh thần khi có thành tích trong công tác hoặc theo quy định của công ty.</t>
+  </si>
+  <si>
+    <t>Nếu người lao động không còn tiếp tục làm việc hoặc có đơn xin nghỉ việc đến ngày phát thưởng thì sẽ không được lĩnh thưởng_x000D_.</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1133,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X137"/>
+  <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB50" sqref="AB50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:X46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1144,8 @@
     <col min="1" max="8" width="4" customWidth="1"/>
     <col min="9" max="10" width="8" customWidth="1"/>
     <col min="11" max="12" width="3" customWidth="1"/>
-    <col min="13" max="24" width="4" customWidth="1"/>
+    <col min="13" max="23" width="4" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1797,101 +1798,101 @@
     </row>
     <row r="22" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
+      <c r="B23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1907,12 +1908,12 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="2"/>
+      <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1935,17 +1936,17 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1967,74 +1968,74 @@
     </row>
     <row r="28" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
     </row>
     <row r="29" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
+      <c r="G29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
     </row>
     <row r="30" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2055,64 +2056,64 @@
     </row>
     <row r="31" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
     </row>
     <row r="32" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
+      <c r="B32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
     </row>
     <row r="33" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2140,7 +2141,7 @@
     <row r="34" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2165,213 +2166,213 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-    </row>
-    <row r="36" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
     </row>
     <row r="37" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
+      <c r="B37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
     </row>
     <row r="38" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+    </row>
+    <row r="39" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="11" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="12" t="s">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-    </row>
-    <row r="41" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
     </row>
     <row r="42" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="B42" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2392,7 +2393,7 @@
     <row r="43" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2419,36 +2420,36 @@
     </row>
     <row r="44" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
+      <c r="B44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
     </row>
     <row r="45" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2458,53 +2459,53 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
     </row>
     <row r="46" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-    </row>
-    <row r="47" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+    </row>
+    <row r="47" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="10" t="s">
-        <v>69</v>
+      <c r="B47" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2529,24 +2530,22 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B48" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -2561,20 +2560,22 @@
     </row>
     <row r="49" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
+      <c r="B49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -2585,68 +2586,68 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
-      <c r="X49" s="2"/>
+      <c r="X49" s="4"/>
     </row>
     <row r="50" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
+      <c r="B50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
       <c r="X50" s="2"/>
     </row>
     <row r="51" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
+      <c r="B51" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
     </row>
     <row r="52" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2671,66 +2672,66 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-    </row>
-    <row r="54" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+    </row>
+    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
+      <c r="B54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
     </row>
     <row r="55" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2755,10 +2756,10 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2783,66 +2784,66 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
+      <c r="B57" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
     </row>
     <row r="58" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
+      <c r="B58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
     </row>
     <row r="59" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2870,7 +2871,7 @@
     <row r="60" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2898,7 +2899,7 @@
     <row r="61" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2925,92 +2926,92 @@
     </row>
     <row r="62" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
+      <c r="B62" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
     </row>
     <row r="63" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
+      <c r="B63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
     </row>
     <row r="64" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
+      <c r="B64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
     </row>
     <row r="65" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="7" t="s">
-        <v>88</v>
+      <c r="B65" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -3037,36 +3038,36 @@
     </row>
     <row r="66" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
+      <c r="B66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
     </row>
     <row r="67" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3093,92 +3094,92 @@
     </row>
     <row r="68" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
+      <c r="B68" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
     </row>
     <row r="69" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
+      <c r="B69" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
     </row>
     <row r="70" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="7"/>
+      <c r="B70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
     </row>
     <row r="71" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="7" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -3205,36 +3206,36 @@
     </row>
     <row r="72" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
-      <c r="B72" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
+      <c r="B72" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
     </row>
     <row r="73" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3262,7 +3263,7 @@
     <row r="74" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3290,7 +3291,7 @@
     <row r="75" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3313,12 +3314,12 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
-      <c r="X75" s="2"/>
+      <c r="X75" s="4"/>
     </row>
     <row r="76" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3341,12 +3342,12 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
+      <c r="X76" s="2"/>
     </row>
     <row r="77" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3374,7 +3375,7 @@
     <row r="78" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3402,7 +3403,7 @@
     <row r="79" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3430,7 +3431,7 @@
     <row r="80" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3457,64 +3458,64 @@
     </row>
     <row r="81" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-      <c r="B81" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="8"/>
+      <c r="B81" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
     </row>
     <row r="82" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
+      <c r="B82" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
     </row>
     <row r="83" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3542,7 +3543,7 @@
     <row r="84" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3570,7 +3571,7 @@
     <row r="85" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3598,7 +3599,7 @@
     <row r="86" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3626,7 +3627,7 @@
     <row r="87" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3654,7 +3655,7 @@
     <row r="88" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3682,7 +3683,7 @@
     <row r="89" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3710,7 +3711,7 @@
     <row r="90" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3738,7 +3739,7 @@
     <row r="91" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3766,7 +3767,7 @@
     <row r="92" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3794,7 +3795,7 @@
     <row r="93" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3822,7 +3823,7 @@
     <row r="94" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3850,7 +3851,7 @@
     <row r="95" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3878,7 +3879,7 @@
     <row r="96" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3906,7 +3907,7 @@
     <row r="97" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -3934,7 +3935,7 @@
     <row r="98" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3962,7 +3963,7 @@
     <row r="99" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3990,7 +3991,7 @@
     <row r="100" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -4018,7 +4019,7 @@
     <row r="101" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -4043,64 +4044,64 @@
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
     </row>
-    <row r="102" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-    </row>
-    <row r="103" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+    </row>
+    <row r="103" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
-      <c r="B103" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="7"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
     </row>
     <row r="104" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -4127,36 +4128,36 @@
     </row>
     <row r="105" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
-      <c r="B105" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
+      <c r="B105" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
     </row>
     <row r="106" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -4184,7 +4185,7 @@
     <row r="107" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -4212,7 +4213,7 @@
     <row r="108" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -4240,7 +4241,7 @@
     <row r="109" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -4267,64 +4268,64 @@
     </row>
     <row r="110" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
-      <c r="B110" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="7"/>
-      <c r="X110" s="7"/>
+      <c r="B110" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
     </row>
     <row r="111" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
-      <c r="B111" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-      <c r="S111" s="4"/>
-      <c r="T111" s="4"/>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
-      <c r="W111" s="4"/>
-      <c r="X111" s="4"/>
+      <c r="B111" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="7"/>
     </row>
     <row r="112" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -4352,7 +4353,7 @@
     <row r="113" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -4380,7 +4381,7 @@
     <row r="114" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -4407,64 +4408,64 @@
     </row>
     <row r="115" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
-      <c r="B115" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="7"/>
-      <c r="W115" s="7"/>
-      <c r="X115" s="7"/>
+      <c r="B115" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
     </row>
     <row r="116" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
-      <c r="B116" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
-      <c r="S116" s="4"/>
-      <c r="T116" s="4"/>
-      <c r="U116" s="4"/>
-      <c r="V116" s="4"/>
-      <c r="W116" s="4"/>
-      <c r="X116" s="4"/>
+      <c r="B116" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
+      <c r="W116" s="7"/>
+      <c r="X116" s="7"/>
     </row>
     <row r="117" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -4492,7 +4493,7 @@
     <row r="118" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -4520,7 +4521,7 @@
     <row r="119" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -4548,7 +4549,7 @@
     <row r="120" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -4576,7 +4577,7 @@
     <row r="121" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -4603,64 +4604,64 @@
     </row>
     <row r="122" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
-      <c r="B122" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="7"/>
-      <c r="T122" s="7"/>
-      <c r="U122" s="7"/>
-      <c r="V122" s="7"/>
-      <c r="W122" s="7"/>
-      <c r="X122" s="7"/>
+      <c r="B122" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
     </row>
     <row r="123" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
-      <c r="B123" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-      <c r="T123" s="4"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="4"/>
-      <c r="W123" s="4"/>
-      <c r="X123" s="4"/>
+      <c r="B123" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="7"/>
     </row>
     <row r="124" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -4688,7 +4689,7 @@
     <row r="125" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -4716,7 +4717,7 @@
     <row r="126" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -4744,7 +4745,7 @@
     <row r="127" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -4771,87 +4772,89 @@
     </row>
     <row r="128" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
-      <c r="B128" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5"/>
-      <c r="V128" s="5"/>
-      <c r="W128" s="5"/>
-      <c r="X128" s="5"/>
+      <c r="B128" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
     </row>
     <row r="129" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
-      <c r="B129" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
-      <c r="S129" s="6"/>
-      <c r="T129" s="6"/>
-      <c r="U129" s="6"/>
-      <c r="V129" s="6"/>
-      <c r="W129" s="6"/>
-      <c r="X129" s="6"/>
+      <c r="B129" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="5"/>
+      <c r="X129" s="5"/>
     </row>
     <row r="130" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-      <c r="U130" s="2"/>
-      <c r="V130" s="2"/>
-      <c r="W130" s="2"/>
-      <c r="X130" s="2"/>
+      <c r="B130" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="6"/>
+      <c r="T130" s="6"/>
+      <c r="U130" s="6"/>
+      <c r="V130" s="6"/>
+      <c r="W130" s="6"/>
+      <c r="X130" s="6"/>
     </row>
     <row r="131" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
@@ -4935,49 +4938,47 @@
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
-      <c r="O134" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-      <c r="S134" s="4"/>
-      <c r="T134" s="4"/>
-      <c r="U134" s="4"/>
-      <c r="V134" s="4"/>
-      <c r="W134" s="4"/>
-      <c r="X134" s="4"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="2"/>
     </row>
     <row r="135" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
+      <c r="D135" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
@@ -4987,7 +4988,7 @@
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
-      <c r="X135" s="2"/>
+      <c r="X135" s="4"/>
     </row>
     <row r="136" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
@@ -5005,18 +5006,16 @@
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P136" s="4"/>
-      <c r="Q136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R136" s="7"/>
-      <c r="S136" s="7"/>
-      <c r="T136" s="7"/>
-      <c r="U136" s="7"/>
-      <c r="V136" s="7"/>
-      <c r="W136" s="2"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
       <c r="X136" s="2"/>
     </row>
     <row r="137" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -5035,20 +5034,50 @@
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
+      <c r="Q137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
+      <c r="W137" s="2"/>
       <c r="X137" s="2"/>
     </row>
+    <row r="138" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="173">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="M1:X1"/>
@@ -5101,44 +5130,43 @@
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="R21:X21"/>
-    <mergeCell ref="B22:X22"/>
     <mergeCell ref="B23:X23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:X24"/>
-    <mergeCell ref="B25:W25"/>
-    <mergeCell ref="B26:X26"/>
-    <mergeCell ref="F27:X27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:X28"/>
+    <mergeCell ref="B24:X24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:X25"/>
+    <mergeCell ref="B26:W26"/>
+    <mergeCell ref="B27:X27"/>
+    <mergeCell ref="F28:X28"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="G29:X29"/>
-    <mergeCell ref="B30:X30"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:X30"/>
     <mergeCell ref="B31:X31"/>
     <mergeCell ref="B32:X32"/>
     <mergeCell ref="B33:X33"/>
     <mergeCell ref="B34:X34"/>
-    <mergeCell ref="B36:X36"/>
+    <mergeCell ref="B35:X35"/>
     <mergeCell ref="B37:X37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:X38"/>
-    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B38:X38"/>
+    <mergeCell ref="B39:F39"/>
     <mergeCell ref="G39:X39"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:X41"/>
-    <mergeCell ref="B42:X42"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:X40"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:X42"/>
     <mergeCell ref="B43:X43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B45:X45"/>
+    <mergeCell ref="B44:X44"/>
+    <mergeCell ref="B45:J45"/>
     <mergeCell ref="B46:X46"/>
     <mergeCell ref="B47:X47"/>
-    <mergeCell ref="B48:L48"/>
-    <mergeCell ref="M48:X48"/>
-    <mergeCell ref="B49:W49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B51:X51"/>
+    <mergeCell ref="B48:X48"/>
+    <mergeCell ref="B49:L49"/>
+    <mergeCell ref="M49:X49"/>
+    <mergeCell ref="B50:W50"/>
+    <mergeCell ref="B51:J51"/>
     <mergeCell ref="B52:X52"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B54:X54"/>
+    <mergeCell ref="B53:X53"/>
+    <mergeCell ref="B54:J54"/>
     <mergeCell ref="B55:X55"/>
     <mergeCell ref="B56:X56"/>
     <mergeCell ref="B57:X57"/>
@@ -5159,8 +5187,8 @@
     <mergeCell ref="B72:X72"/>
     <mergeCell ref="B73:X73"/>
     <mergeCell ref="B74:X74"/>
-    <mergeCell ref="B75:W75"/>
-    <mergeCell ref="B76:X76"/>
+    <mergeCell ref="B75:X75"/>
+    <mergeCell ref="B76:W76"/>
     <mergeCell ref="B77:X77"/>
     <mergeCell ref="B78:X78"/>
     <mergeCell ref="B79:X79"/>
@@ -5183,17 +5211,6 @@
     <mergeCell ref="B96:X96"/>
     <mergeCell ref="B97:X97"/>
     <mergeCell ref="B98:X98"/>
-    <mergeCell ref="B99:X99"/>
-    <mergeCell ref="B100:X100"/>
-    <mergeCell ref="B101:X101"/>
-    <mergeCell ref="B103:X103"/>
-    <mergeCell ref="B104:X104"/>
-    <mergeCell ref="B105:X105"/>
-    <mergeCell ref="B106:X106"/>
-    <mergeCell ref="B107:X107"/>
-    <mergeCell ref="B108:X108"/>
-    <mergeCell ref="B109:X109"/>
-    <mergeCell ref="B110:X110"/>
     <mergeCell ref="B111:X111"/>
     <mergeCell ref="B112:X112"/>
     <mergeCell ref="B113:X113"/>
@@ -5201,6 +5218,28 @@
     <mergeCell ref="B115:X115"/>
     <mergeCell ref="B116:X116"/>
     <mergeCell ref="B117:X117"/>
+    <mergeCell ref="B99:X99"/>
+    <mergeCell ref="B100:X100"/>
+    <mergeCell ref="B101:X101"/>
+    <mergeCell ref="B102:X102"/>
+    <mergeCell ref="B104:X104"/>
+    <mergeCell ref="B105:X105"/>
+    <mergeCell ref="B106:X106"/>
+    <mergeCell ref="B107:X107"/>
+    <mergeCell ref="B108:X108"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B127:X127"/>
+    <mergeCell ref="B128:X128"/>
+    <mergeCell ref="B129:L129"/>
+    <mergeCell ref="M129:X129"/>
+    <mergeCell ref="O138:W138"/>
+    <mergeCell ref="B130:L130"/>
+    <mergeCell ref="M130:X130"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="O135:X135"/>
+    <mergeCell ref="O136:W136"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="Q137:V137"/>
     <mergeCell ref="B118:X118"/>
     <mergeCell ref="B119:X119"/>
     <mergeCell ref="B120:X120"/>
@@ -5210,24 +5249,15 @@
     <mergeCell ref="B124:X124"/>
     <mergeCell ref="B125:X125"/>
     <mergeCell ref="B126:X126"/>
-    <mergeCell ref="B127:X127"/>
-    <mergeCell ref="B128:L128"/>
-    <mergeCell ref="M128:X128"/>
-    <mergeCell ref="O137:W137"/>
-    <mergeCell ref="B129:L129"/>
-    <mergeCell ref="M129:X129"/>
-    <mergeCell ref="D134:J134"/>
-    <mergeCell ref="O134:X134"/>
-    <mergeCell ref="O135:W135"/>
-    <mergeCell ref="O136:P136"/>
-    <mergeCell ref="Q136:V136"/>
+    <mergeCell ref="B109:X109"/>
+    <mergeCell ref="B110:X110"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.38999998569488525" bottom="0.5899999737739563" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Y23 A71:Y138 A70 C70:Y70 A40:Y69 A39:G39 Y39 A29:Y38 A28:G28 Y28 A25:Y27 A24:G24 I24:Y24" numberStoredAsText="1"/>
+    <ignoredError sqref="A23:Y24 A72:Y139 A71 C71:Y71 A41:Y46 A40:G40 Y40 A30:Y39 A29:G29 Y29 A26:Y28 A25:G25 I25:Y25 A1:Y21 A69:Y70 A68 C68:Y68 A63:Y67 A62 C62:Y62 A49:Y61 A47 C47:Y47 A48 C48:Y48" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/static/uploads/mau/hopdong/nt1/duoi_o2/hdvth.xlsx
+++ b/static/uploads/mau/hopdong/nt1/duoi_o2/hdvth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NS7000~1.THU\AppData\Local\Temp\Rar$DIa2268.3471\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\hopdong\nt1\duoi_o2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857F8A54-2E05-46FD-AAC2-B671B951FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A58EF7-2D65-4E0B-B78E-3BAB6A77CE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,473 +28,473 @@
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
   <si>
-    <t>Địa chỉ: Rực Liễn - Thuỷ Sơn - Thuỷ Nguyên - Hải Phòng_x000D_
+    <t>Độc lập - Tự do - Hạnh phúc</t>
+  </si>
+  <si>
+    <t>------------------------</t>
+  </si>
+  <si>
+    <t>Số: LC/12481</t>
+  </si>
+  <si>
+    <t>Hải Phòng, ngày 08 tháng 05 năm 2024</t>
+  </si>
+  <si>
+    <t>HỢP ĐỒNG LAO ĐỘNG</t>
+  </si>
+  <si>
+    <t>(Căn cứ vào BLLĐ 45/2019/QH 14 và NĐ 145/2020/NĐ-CP, TT 10/2020/TT-BLĐTBXH )</t>
+  </si>
+  <si>
+    <t>Chúng tôi, một bên là</t>
+  </si>
+  <si>
+    <t>Ông/Bà:</t>
+  </si>
+  <si>
+    <t>VŨ THỊ HIỀN</t>
+  </si>
+  <si>
+    <t>Quốc tịch:</t>
+  </si>
+  <si>
+    <t>VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Chức vụ:</t>
+  </si>
+  <si>
+    <t>Trưởng phòng Hành chính Nhân sự</t>
+  </si>
+  <si>
+    <t>Sinh ngày:</t>
+  </si>
+  <si>
+    <t>05/09/1990           Giới tính: Nữ</t>
+  </si>
+  <si>
+    <t>Địa chỉ thường trú:</t>
+  </si>
+  <si>
+    <t>Quyết Tiến 3, An Thắng, An Lão, Hải Phòng</t>
+  </si>
+  <si>
+    <t>Số CCCD:</t>
+  </si>
+  <si>
+    <t>031190008508</t>
+  </si>
+  <si>
+    <t>Cấp ngày:</t>
+  </si>
+  <si>
+    <t>02/03/2022</t>
+  </si>
+  <si>
+    <t>Nơi cấp:</t>
+  </si>
+  <si>
+    <t>Cục cảnh sát</t>
+  </si>
+  <si>
+    <t>Đại diện cho:</t>
+  </si>
+  <si>
+    <t>Địa chỉ:</t>
+  </si>
+  <si>
+    <t>Điện thoại:</t>
+  </si>
+  <si>
+    <t>02253642408</t>
+  </si>
+  <si>
+    <t>Fax:</t>
+  </si>
+  <si>
+    <t>02253642407</t>
+  </si>
+  <si>
+    <t>Và một bên là:</t>
+  </si>
+  <si>
+    <t>BÙI THỊ HUỆ</t>
+  </si>
+  <si>
+    <t>VIỆT NAM</t>
+  </si>
+  <si>
+    <t>18/07/1980</t>
+  </si>
+  <si>
+    <t>Giới tính:</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Trung Dũng, An Lão, An Lão, Hải Phòng</t>
+  </si>
+  <si>
+    <t>Số CCCD: 030180000110</t>
+  </si>
+  <si>
+    <t>25/04/2021</t>
+  </si>
+  <si>
+    <t>Thỏa thuận ký kết hợp đồng lao động và cam kết làm đúng những điều khoản sau đây:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐIỀU 1: HỢP ĐỒNG VÀ CÔNG VIỆC HỢP ĐỒNG </t>
+  </si>
+  <si>
+    <t>- Thời hạn hợp đồng:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kể từ ngày 08 tháng 05 năm 2024 </t>
+  </si>
+  <si>
+    <t>+ Các địa điểm khác theo sự phân công của Công ty theo yêu cầu công việc</t>
+  </si>
+  <si>
+    <t>- Chức danh công việc:</t>
+  </si>
+  <si>
+    <t>Công nhân may công nghiệp</t>
+  </si>
+  <si>
+    <t>- Công việc phải làm:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện theo bảng mô tả công việc và Các công việc liên quan khác dưới sự phân công  của người </t>
+  </si>
+  <si>
+    <t>quản lý trực tiếp.</t>
+  </si>
+  <si>
+    <t>ĐIỀU 2: THỜI GIAN LÀM VIỆC, THỜI GIAN NGHỈ NGƠI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thời gian làm việc, làm thêm giờ và thời gian nghỉ ngơi theo nội quy, thỏa ước lao động tập thể của công ty và quy định của </t>
+  </si>
+  <si>
+    <t>pháp luật.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Nghỉ lễ, Tết, việc riêng có hưởng lương: theo quy định của pháp luật và nội quy của công ty. </t>
+  </si>
+  <si>
+    <t>ĐIỀU 3: TIỀN LƯƠNG VÀ CÁC CHẾ ĐỘ PHÚC LỢI</t>
+  </si>
+  <si>
+    <t>1. TIỀN LƯƠNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Mức lương: </t>
+  </si>
+  <si>
+    <t>5,573,000 VNĐ/ tháng</t>
+  </si>
+  <si>
+    <t>- Phụ cấp lương:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Các khoản bổ sung khác: </t>
+  </si>
+  <si>
+    <t>Theo Thỏa ước lao động tập thể, và các thông báo, quy định cụ thể của Công ty (nếu có)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiền lương được trả sau khi làm đủ số ngày công mỗi tháng dương lịch (người lao động không làm đủ ngày công trong một (01) </t>
+  </si>
+  <si>
+    <t>tháng thì tiền lương được hưởng sẽ là mức lương trừ đi tiền lương ngày nghỉ).</t>
+  </si>
+  <si>
+    <t>2. CÁC CHẾ ĐỘ PHÚC LỢI KHÁC</t>
+  </si>
+  <si>
+    <t>- Khen thưởng :</t>
+  </si>
+  <si>
+    <t>- Tiền hỗ trợ xăng xe/ nhà ở, con nhỏ, thăm hỏi hiếu hỉ, ...:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thực hiện theo Thỏa ước lao động tập thể và các thông báo </t>
+  </si>
+  <si>
+    <t>cụ thể của Công ty.</t>
+  </si>
+  <si>
+    <t>3.  HÌNH THỨC TRẢ LƯƠNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người lao động được trả lương theo lương thời gian và theo lương tháng. Hàng tháng tiền lương được chuyển khoản trực tiếp </t>
+  </si>
+  <si>
+    <t>vào tài khoản cá nhân của người lao động. Người lao động được nhận phiếu lương từng tháng từ phòng kế toán.</t>
+  </si>
+  <si>
+    <t>4. NGÀY TRẢ LƯƠNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người lao động được trả lương theo tháng vào ngày 10 của tháng tiếp theo. Nếu ngày trả lương trùng vào ngày chủ nhật thì </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lương sẽ được trả vào ngày 11. Trường hợp đặc biệt nếu ngày trả lương rơi vào dịp nghỉ lễ, Tết thì công ty sẽ sắp xếp thời gian </t>
+  </si>
+  <si>
+    <t>thanh toán phù hợp và có thông báo trước cho người lao động.</t>
+  </si>
+  <si>
+    <t>5. CHẾ ĐỘ NÂNG BẬC, NÂNG LƯƠNG</t>
+  </si>
+  <si>
+    <t>Thực hiện theo quy chế của công ty, thỏa ước lao động tập thể và theo quy định của chính phủ (nếu có)</t>
+  </si>
+  <si>
+    <t>Mức lương nêu trên có thể được thay đổi theo chính sách nâng bậc tay nghề của công ty hoặc trong trường hợp Chính phủ điều</t>
+  </si>
+  <si>
+    <t>chỉnh mức lương tối thiểu vùng (nếu có). Trong trường hợp đó, công ty sẽ thông báo cho người lao động biết và mức lương, phụ</t>
+  </si>
+  <si>
+    <t>6. TRANG BỊ BẢO HỘ LAO ĐỘNG</t>
+  </si>
+  <si>
+    <t>Người lao động được cấp phát trang thiết bị bảo hộ lao động theo chính sách cấp phát bảo hộ lao động của công ty.</t>
+  </si>
+  <si>
+    <t>7. BẢO HIỂM XÃ HỘI, BẢO HIỂM THẤT NGHIỆP, BẢO HIỂM Y TẾ, BẢO HIỂM TAI NẠN LAO ĐỘNG -																						_x000D_</t>
+  </si>
+  <si>
+    <t>BỆNH NGHỀ NGHIỆP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người lao động sẽ được tham gia BHXH, BHYT, BHTN, BHTNLĐ - BNN và hưởng các chế độ Bảo hiểm này theo quy định </t>
+  </si>
+  <si>
+    <t>8. ĐÀO TẠO, BỒI DƯỠNG, NÂNG CAO TRÌNH ĐỘ KỸ NĂNG NGHỀ</t>
+  </si>
+  <si>
+    <t>Thực hiện theo quy định và chính sách đào tạo - phát triển của công ty.</t>
+  </si>
+  <si>
+    <t>4.1. Quyền lợi</t>
+  </si>
+  <si>
+    <t>- Được làm việc theo hợp đồng lao động và không bị phân biệt đối xử.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-  Hưởng lương phù hợp với trình độ kỹ năng nghề trên cơ sở thoả thuận với người sử dụng lao động; được bảo hộ lao động, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">làm việc trong điều kiện bảo đảm về an toàn lao động, vệ sinh lao động; nghỉ theo chế độ, nghỉ hằng năm có lương và được </t>
+  </si>
+  <si>
+    <t>hưởng phúc lợi tập thể.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thành lập, gia nhập, hoạt động công đoàn, tổ chức nghề nghiệp và tổ chức khác theo quy định của pháp luật, ; yêu cầu và </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tham gia đối thoại với người sử dụng lao động, thực hiện quy chế dân chủ và được tham vấn tại nơi làm việc để bảo vệ quyền </t>
+  </si>
+  <si>
+    <t>và lợi ích hợp pháp của mình; tham gia quản lý theo nội quy của người sử dụng lao động.</t>
+  </si>
+  <si>
+    <t>-  Đơn phương chấm dứt hợp đồng lao động theo quy định của pháp luật.</t>
+  </si>
+  <si>
+    <t>- Các quyền khác theo quy định của pháp luật.</t>
+  </si>
+  <si>
+    <t>4.2. Nghĩa vụ</t>
+  </si>
+  <si>
+    <t>- Tuân thủ nội quy lao động, các quy định về tác phong làm việc, trật tự an ninh, qui định về hút thuốc, phòng chống cháy nổ,</t>
+  </si>
+  <si>
+    <t>an toàn vệ sinh lao động, kỷ luật lao động …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tuân thủ lệnh điều hành sản xuất – kinh doanh, các yêu cầu / quy định về sản xuất, chất lượng, an toàn sản phẩm, các quy </t>
+  </si>
+  <si>
+    <t>định của khách hàng, của tập đoàn, các quy định của bộ phận.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hoàn thành công việc được giao, thực hiện theo sự phân công yêu cầu của bộ phận, người quản lý. </t>
+  </si>
+  <si>
+    <t>- Bồi thường thiệt hại: Theo Nội quy công ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Về thuế: Người lao động chịu trách nhiệm nộp thuế thu nhập cá nhân của mình (nếu có). Trong bất kỳ hoàn cảnh nào, vì bất </t>
+  </si>
+  <si>
+    <t>cứ lý do gì, người lao động phải đảm bảo rằng Công ty sẽ không chịu thiệt hại nào phát sinh từ việc nộp thuế thu nhập cá nhân</t>
+  </si>
+  <si>
+    <t>của mình.</t>
+  </si>
+  <si>
+    <t>-  Về thời gian báo trước khi muốn chấm dứt hợp đồng lao động</t>
+  </si>
+  <si>
+    <t>Trong thời gian hiệu lực của hợp đồng xác định thời hạn mười hai (12) tháng thì thời gian báo trước ít nhất là ba mươi (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ngày.</t>
+  </si>
+  <si>
+    <t>Kể từ khi hợp đồng lao động được chuyển sang hình thức hợp đồng lao động không xác định thời hạn thì thời gian báo trước</t>
+  </si>
+  <si>
+    <t>ít nhất là bốn mươi lăm (45) ngày.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu bên nào vi phạm thời hạn báo trước thì bên vi phạm sẽ phải bồi thường cho bên kia một khoản tiền lương tương ứng với </t>
+  </si>
+  <si>
+    <t>tiền lương của người lao động trong thời gian không báo trước.</t>
+  </si>
+  <si>
+    <t>Quy định về thời gian báo trước nêu trên không áp dụng trong trường hợp người lao động bị xử lý kỷ luật sa thải trước và thực</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hiện theo nội quy của Công ty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Ngoài những điều khoản nêu trong hợp đồng này, người lao động phải tuân thủ các quy định trong Nội quy của công ty, </t>
+  </si>
+  <si>
+    <t>Thỏa ước lao động tập thể và các quy chế khác.</t>
+  </si>
+  <si>
+    <t>ĐIỀU 5: NGHĨA VỤ VÀ QUYỀN HẠN CỦA NGƯỜI SỬ DỤNG LAO ĐỘNG</t>
+  </si>
+  <si>
+    <t>5.1. Quyền hạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người sử dụng lao động có các quyền sau: </t>
+  </si>
+  <si>
+    <t>- Tuyển dụng, bố trí, điều hành, điều chuyển lao động theo nhu cầu sản xuất, kinh doanh.</t>
+  </si>
+  <si>
+    <t>- Có quyền tạm hoãn, chấm dứt hợp đồng thử việc, kỷ luật người lao động theo quy định của pháp luật, thỏa ước lao động tập</t>
+  </si>
+  <si>
+    <t>thể và nội quy Công ty.</t>
+  </si>
+  <si>
+    <t>- Thực hiện các quy định của pháp luật về lao động, pháp luật về bảo hiểm xã hội và pháp luật về bảo hiểm y tế.</t>
+  </si>
+  <si>
+    <t>5.2. Nghĩa vụ</t>
+  </si>
+  <si>
+    <t>- Bảo đảm việc làm và thực hiện hợp đồng lao động, thỏa ước lao động tập thể và thỏa thuận khác với người lao động</t>
+  </si>
+  <si>
+    <t>tôn trọng danh dự, nhân phẩm của người lao động .</t>
+  </si>
+  <si>
+    <t>- Chịu trách nhiệm thanh toán đầy đủ, đúng hạn các chế độ và quyền lợi cho người lao động theo hợp đồng lao động, thỏa ước</t>
+  </si>
+  <si>
+    <t>lao động tập thể.</t>
+  </si>
+  <si>
+    <t>ĐIỀU 6: THỎA THUẬN KHÁC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Công ty được quyền chấm dứt HĐLĐ trước thời hạn đối với Người lao động có kết quả đánh giá hiệu suất công việc dưới mức </t>
+  </si>
+  <si>
+    <t>quy định trong 03 tháng liên tục.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Trong quá trình thực hiện hợp đồng nếu một bên có nhu cầu thay đổi nội dung trong hợp đồng phải báo cho bên kia trước ít </t>
+  </si>
+  <si>
+    <t>nhất 03 ngày và ký kết bản Phụ lục hợp đồng theo quy định của Pháp luật. Trong thời gian tiến hành thỏa thuận hai bên vẫn tuân</t>
+  </si>
+  <si>
+    <t>theo hợp đồng lao động đã ký kết.</t>
+  </si>
+  <si>
+    <t>- Người lao động đọc kỹ, hiểu rõ và cam kết thực hiện các điều khoản và quy định ghi tại Hợp đồng lao động.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐIỀU 7: ĐIỀU KHOẢN THI HÀNH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Những vấn đề về lao động không ghi trong hợp đồng này thì áp dụng theo quy định của Nội quy công ty, Thoả ước lao động </t>
+  </si>
+  <si>
+    <t>tập thể hoặc quy định của pháp luật có liên quan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hợp đồng lao động này được làm thành hai (02) bản có giá trị ngang nhau, mỗi bên giữ một (01) bản. Trong trường hợp có bất </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kỳ sửa đổi, bổ sung thì hai bên sẽ ký kết phụ lục hợp đồng. Khi hai bên ký kết Phụ lục hợp đồng lao động thì nội dung của Phụ </t>
+  </si>
+  <si>
+    <t>lục hợp đồng lao động cũng có giá trị như các nội dung của bản hợp đồng này.</t>
+  </si>
+  <si>
+    <t>Chữ ký người lao động</t>
+  </si>
+  <si>
+    <t>Thay mặt Công ty CP Sản xuất Nam Thuận</t>
+  </si>
+  <si>
+    <t>(Ký và ghi rõ họ tên)</t>
+  </si>
+  <si>
+    <t>…………………………………………..</t>
+  </si>
+  <si>
+    <t>Người được uỷ quyền</t>
+  </si>
+  <si>
+    <t>Họ tên:</t>
+  </si>
+  <si>
+    <t>Vị trí: Trưởng phòng Hành chính Nhân sự</t>
+  </si>
+  <si>
+    <t>ĐIỀU 4: NGHĨA VỤ VÀ QUYỀN HẠN CỦA NGƯỜI LAO ĐỘNG</t>
+  </si>
+  <si>
+    <t>Hợp đồng không xác định thời hạn</t>
+  </si>
+  <si>
+    <t>của pháp luật về lao động và quy định của bảo hiểm	.</t>
+  </si>
+  <si>
+    <t>cấp (nếu có) sẽ tự động thay đổi theo quy định mới.</t>
+  </si>
+  <si>
+    <t>Người lao động được khuyến khích bằng vật chất và tinh thần khi có thành tích trong công tác hoặc theo quy định của công ty.</t>
+  </si>
+  <si>
+    <t>Nếu người lao động không còn tiếp tục làm việc hoặc có đơn xin nghỉ việc đến ngày phát thưởng thì sẽ không được lĩnh thưởng_x000D_.</t>
+  </si>
+  <si>
+    <t>- Địa điểm làm việc: + Thủy Sơn, Phường Thủy Đường, TP Thủy Nguyên, TP Hải Phòng</t>
+  </si>
+  <si>
+    <t>Thủy Sơn, Phường Thủy Đường, TP Thủy Nguyên, TP Hải Phòng</t>
+  </si>
+  <si>
+    <t>Địa chỉ: Thuỷ Sơn - Thuỷ Đường - Thuỷ Nguyên - Hải Phòng
 ĐT: 02253.642.408</t>
-  </si>
-  <si>
-    <t>Độc lập - Tự do - Hạnh phúc</t>
-  </si>
-  <si>
-    <t>------------------------</t>
-  </si>
-  <si>
-    <t>Số: LC/12481</t>
-  </si>
-  <si>
-    <t>Hải Phòng, ngày 08 tháng 05 năm 2024</t>
-  </si>
-  <si>
-    <t>HỢP ĐỒNG LAO ĐỘNG</t>
-  </si>
-  <si>
-    <t>(Căn cứ vào BLLĐ 45/2019/QH 14 và NĐ 145/2020/NĐ-CP, TT 10/2020/TT-BLĐTBXH )</t>
-  </si>
-  <si>
-    <t>Chúng tôi, một bên là</t>
-  </si>
-  <si>
-    <t>Ông/Bà:</t>
-  </si>
-  <si>
-    <t>VŨ THỊ HIỀN</t>
-  </si>
-  <si>
-    <t>Quốc tịch:</t>
-  </si>
-  <si>
-    <t>VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Chức vụ:</t>
-  </si>
-  <si>
-    <t>Trưởng phòng Hành chính Nhân sự</t>
-  </si>
-  <si>
-    <t>Sinh ngày:</t>
-  </si>
-  <si>
-    <t>05/09/1990           Giới tính: Nữ</t>
-  </si>
-  <si>
-    <t>Địa chỉ thường trú:</t>
-  </si>
-  <si>
-    <t>Quyết Tiến 3, An Thắng, An Lão, Hải Phòng</t>
-  </si>
-  <si>
-    <t>Số CCCD:</t>
-  </si>
-  <si>
-    <t>031190008508</t>
-  </si>
-  <si>
-    <t>Cấp ngày:</t>
-  </si>
-  <si>
-    <t>02/03/2022</t>
-  </si>
-  <si>
-    <t>Nơi cấp:</t>
-  </si>
-  <si>
-    <t>Cục cảnh sát</t>
-  </si>
-  <si>
-    <t>Đại diện cho:</t>
-  </si>
-  <si>
-    <t>Địa chỉ:</t>
-  </si>
-  <si>
-    <t>Thôn Rực Liễn, xã Thủy Sơn, huyện Thủy Nguyên, TP Hải Phòng</t>
-  </si>
-  <si>
-    <t>Điện thoại:</t>
-  </si>
-  <si>
-    <t>02253642408</t>
-  </si>
-  <si>
-    <t>Fax:</t>
-  </si>
-  <si>
-    <t>02253642407</t>
-  </si>
-  <si>
-    <t>Và một bên là:</t>
-  </si>
-  <si>
-    <t>BÙI THỊ HUỆ</t>
-  </si>
-  <si>
-    <t>VIỆT NAM</t>
-  </si>
-  <si>
-    <t>18/07/1980</t>
-  </si>
-  <si>
-    <t>Giới tính:</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Trung Dũng, An Lão, An Lão, Hải Phòng</t>
-  </si>
-  <si>
-    <t>Số CCCD: 030180000110</t>
-  </si>
-  <si>
-    <t>25/04/2021</t>
-  </si>
-  <si>
-    <t>Thỏa thuận ký kết hợp đồng lao động và cam kết làm đúng những điều khoản sau đây:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐIỀU 1: HỢP ĐỒNG VÀ CÔNG VIỆC HỢP ĐỒNG </t>
-  </si>
-  <si>
-    <t>- Thời hạn hợp đồng:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kể từ ngày 08 tháng 05 năm 2024 </t>
-  </si>
-  <si>
-    <t>- Địa điểm làm việc: + Thôn Rực Liễn, xã Thủy Sơn, huyện Thủy Nguyên, TP Hải Phòng</t>
-  </si>
-  <si>
-    <t>+ Các địa điểm khác theo sự phân công của Công ty theo yêu cầu công việc</t>
-  </si>
-  <si>
-    <t>- Chức danh công việc:</t>
-  </si>
-  <si>
-    <t>Công nhân may công nghiệp</t>
-  </si>
-  <si>
-    <t>- Công việc phải làm:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực hiện theo bảng mô tả công việc và Các công việc liên quan khác dưới sự phân công  của người </t>
-  </si>
-  <si>
-    <t>quản lý trực tiếp.</t>
-  </si>
-  <si>
-    <t>ĐIỀU 2: THỜI GIAN LÀM VIỆC, THỜI GIAN NGHỈ NGƠI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thời gian làm việc, làm thêm giờ và thời gian nghỉ ngơi theo nội quy, thỏa ước lao động tập thể của công ty và quy định của </t>
-  </si>
-  <si>
-    <t>pháp luật.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Nghỉ lễ, Tết, việc riêng có hưởng lương: theo quy định của pháp luật và nội quy của công ty. </t>
-  </si>
-  <si>
-    <t>ĐIỀU 3: TIỀN LƯƠNG VÀ CÁC CHẾ ĐỘ PHÚC LỢI</t>
-  </si>
-  <si>
-    <t>1. TIỀN LƯƠNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Mức lương: </t>
-  </si>
-  <si>
-    <t>5,573,000 VNĐ/ tháng</t>
-  </si>
-  <si>
-    <t>- Phụ cấp lương:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Các khoản bổ sung khác: </t>
-  </si>
-  <si>
-    <t>Theo Thỏa ước lao động tập thể, và các thông báo, quy định cụ thể của Công ty (nếu có)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiền lương được trả sau khi làm đủ số ngày công mỗi tháng dương lịch (người lao động không làm đủ ngày công trong một (01) </t>
-  </si>
-  <si>
-    <t>tháng thì tiền lương được hưởng sẽ là mức lương trừ đi tiền lương ngày nghỉ).</t>
-  </si>
-  <si>
-    <t>2. CÁC CHẾ ĐỘ PHÚC LỢI KHÁC</t>
-  </si>
-  <si>
-    <t>- Khen thưởng :</t>
-  </si>
-  <si>
-    <t>- Tiền hỗ trợ xăng xe/ nhà ở, con nhỏ, thăm hỏi hiếu hỉ, ...:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thực hiện theo Thỏa ước lao động tập thể và các thông báo </t>
-  </si>
-  <si>
-    <t>cụ thể của Công ty.</t>
-  </si>
-  <si>
-    <t>3.  HÌNH THỨC TRẢ LƯƠNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người lao động được trả lương theo lương thời gian và theo lương tháng. Hàng tháng tiền lương được chuyển khoản trực tiếp </t>
-  </si>
-  <si>
-    <t>vào tài khoản cá nhân của người lao động. Người lao động được nhận phiếu lương từng tháng từ phòng kế toán.</t>
-  </si>
-  <si>
-    <t>4. NGÀY TRẢ LƯƠNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người lao động được trả lương theo tháng vào ngày 10 của tháng tiếp theo. Nếu ngày trả lương trùng vào ngày chủ nhật thì </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lương sẽ được trả vào ngày 11. Trường hợp đặc biệt nếu ngày trả lương rơi vào dịp nghỉ lễ, Tết thì công ty sẽ sắp xếp thời gian </t>
-  </si>
-  <si>
-    <t>thanh toán phù hợp và có thông báo trước cho người lao động.</t>
-  </si>
-  <si>
-    <t>5. CHẾ ĐỘ NÂNG BẬC, NÂNG LƯƠNG</t>
-  </si>
-  <si>
-    <t>Thực hiện theo quy chế của công ty, thỏa ước lao động tập thể và theo quy định của chính phủ (nếu có)</t>
-  </si>
-  <si>
-    <t>Mức lương nêu trên có thể được thay đổi theo chính sách nâng bậc tay nghề của công ty hoặc trong trường hợp Chính phủ điều</t>
-  </si>
-  <si>
-    <t>chỉnh mức lương tối thiểu vùng (nếu có). Trong trường hợp đó, công ty sẽ thông báo cho người lao động biết và mức lương, phụ</t>
-  </si>
-  <si>
-    <t>6. TRANG BỊ BẢO HỘ LAO ĐỘNG</t>
-  </si>
-  <si>
-    <t>Người lao động được cấp phát trang thiết bị bảo hộ lao động theo chính sách cấp phát bảo hộ lao động của công ty.</t>
-  </si>
-  <si>
-    <t>7. BẢO HIỂM XÃ HỘI, BẢO HIỂM THẤT NGHIỆP, BẢO HIỂM Y TẾ, BẢO HIỂM TAI NẠN LAO ĐỘNG -																						_x000D_</t>
-  </si>
-  <si>
-    <t>BỆNH NGHỀ NGHIỆP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người lao động sẽ được tham gia BHXH, BHYT, BHTN, BHTNLĐ - BNN và hưởng các chế độ Bảo hiểm này theo quy định </t>
-  </si>
-  <si>
-    <t>8. ĐÀO TẠO, BỒI DƯỠNG, NÂNG CAO TRÌNH ĐỘ KỸ NĂNG NGHỀ</t>
-  </si>
-  <si>
-    <t>Thực hiện theo quy định và chính sách đào tạo - phát triển của công ty.</t>
-  </si>
-  <si>
-    <t>4.1. Quyền lợi</t>
-  </si>
-  <si>
-    <t>- Được làm việc theo hợp đồng lao động và không bị phân biệt đối xử.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-  Hưởng lương phù hợp với trình độ kỹ năng nghề trên cơ sở thoả thuận với người sử dụng lao động; được bảo hộ lao động, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">làm việc trong điều kiện bảo đảm về an toàn lao động, vệ sinh lao động; nghỉ theo chế độ, nghỉ hằng năm có lương và được </t>
-  </si>
-  <si>
-    <t>hưởng phúc lợi tập thể.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thành lập, gia nhập, hoạt động công đoàn, tổ chức nghề nghiệp và tổ chức khác theo quy định của pháp luật, ; yêu cầu và </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tham gia đối thoại với người sử dụng lao động, thực hiện quy chế dân chủ và được tham vấn tại nơi làm việc để bảo vệ quyền </t>
-  </si>
-  <si>
-    <t>và lợi ích hợp pháp của mình; tham gia quản lý theo nội quy của người sử dụng lao động.</t>
-  </si>
-  <si>
-    <t>-  Đơn phương chấm dứt hợp đồng lao động theo quy định của pháp luật.</t>
-  </si>
-  <si>
-    <t>- Các quyền khác theo quy định của pháp luật.</t>
-  </si>
-  <si>
-    <t>4.2. Nghĩa vụ</t>
-  </si>
-  <si>
-    <t>- Tuân thủ nội quy lao động, các quy định về tác phong làm việc, trật tự an ninh, qui định về hút thuốc, phòng chống cháy nổ,</t>
-  </si>
-  <si>
-    <t>an toàn vệ sinh lao động, kỷ luật lao động …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Tuân thủ lệnh điều hành sản xuất – kinh doanh, các yêu cầu / quy định về sản xuất, chất lượng, an toàn sản phẩm, các quy </t>
-  </si>
-  <si>
-    <t>định của khách hàng, của tập đoàn, các quy định của bộ phận.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Hoàn thành công việc được giao, thực hiện theo sự phân công yêu cầu của bộ phận, người quản lý. </t>
-  </si>
-  <si>
-    <t>- Bồi thường thiệt hại: Theo Nội quy công ty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Về thuế: Người lao động chịu trách nhiệm nộp thuế thu nhập cá nhân của mình (nếu có). Trong bất kỳ hoàn cảnh nào, vì bất </t>
-  </si>
-  <si>
-    <t>cứ lý do gì, người lao động phải đảm bảo rằng Công ty sẽ không chịu thiệt hại nào phát sinh từ việc nộp thuế thu nhập cá nhân</t>
-  </si>
-  <si>
-    <t>của mình.</t>
-  </si>
-  <si>
-    <t>-  Về thời gian báo trước khi muốn chấm dứt hợp đồng lao động</t>
-  </si>
-  <si>
-    <t>Trong thời gian hiệu lực của hợp đồng xác định thời hạn mười hai (12) tháng thì thời gian báo trước ít nhất là ba mươi (30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ngày.</t>
-  </si>
-  <si>
-    <t>Kể từ khi hợp đồng lao động được chuyển sang hình thức hợp đồng lao động không xác định thời hạn thì thời gian báo trước</t>
-  </si>
-  <si>
-    <t>ít nhất là bốn mươi lăm (45) ngày.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nếu bên nào vi phạm thời hạn báo trước thì bên vi phạm sẽ phải bồi thường cho bên kia một khoản tiền lương tương ứng với </t>
-  </si>
-  <si>
-    <t>tiền lương của người lao động trong thời gian không báo trước.</t>
-  </si>
-  <si>
-    <t>Quy định về thời gian báo trước nêu trên không áp dụng trong trường hợp người lao động bị xử lý kỷ luật sa thải trước và thực</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hiện theo nội quy của Công ty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Ngoài những điều khoản nêu trong hợp đồng này, người lao động phải tuân thủ các quy định trong Nội quy của công ty, </t>
-  </si>
-  <si>
-    <t>Thỏa ước lao động tập thể và các quy chế khác.</t>
-  </si>
-  <si>
-    <t>ĐIỀU 5: NGHĨA VỤ VÀ QUYỀN HẠN CỦA NGƯỜI SỬ DỤNG LAO ĐỘNG</t>
-  </si>
-  <si>
-    <t>5.1. Quyền hạn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người sử dụng lao động có các quyền sau: </t>
-  </si>
-  <si>
-    <t>- Tuyển dụng, bố trí, điều hành, điều chuyển lao động theo nhu cầu sản xuất, kinh doanh.</t>
-  </si>
-  <si>
-    <t>- Có quyền tạm hoãn, chấm dứt hợp đồng thử việc, kỷ luật người lao động theo quy định của pháp luật, thỏa ước lao động tập</t>
-  </si>
-  <si>
-    <t>thể và nội quy Công ty.</t>
-  </si>
-  <si>
-    <t>- Thực hiện các quy định của pháp luật về lao động, pháp luật về bảo hiểm xã hội và pháp luật về bảo hiểm y tế.</t>
-  </si>
-  <si>
-    <t>5.2. Nghĩa vụ</t>
-  </si>
-  <si>
-    <t>- Bảo đảm việc làm và thực hiện hợp đồng lao động, thỏa ước lao động tập thể và thỏa thuận khác với người lao động</t>
-  </si>
-  <si>
-    <t>tôn trọng danh dự, nhân phẩm của người lao động .</t>
-  </si>
-  <si>
-    <t>- Chịu trách nhiệm thanh toán đầy đủ, đúng hạn các chế độ và quyền lợi cho người lao động theo hợp đồng lao động, thỏa ước</t>
-  </si>
-  <si>
-    <t>lao động tập thể.</t>
-  </si>
-  <si>
-    <t>ĐIỀU 6: THỎA THUẬN KHÁC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Công ty được quyền chấm dứt HĐLĐ trước thời hạn đối với Người lao động có kết quả đánh giá hiệu suất công việc dưới mức </t>
-  </si>
-  <si>
-    <t>quy định trong 03 tháng liên tục.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Trong quá trình thực hiện hợp đồng nếu một bên có nhu cầu thay đổi nội dung trong hợp đồng phải báo cho bên kia trước ít </t>
-  </si>
-  <si>
-    <t>nhất 03 ngày và ký kết bản Phụ lục hợp đồng theo quy định của Pháp luật. Trong thời gian tiến hành thỏa thuận hai bên vẫn tuân</t>
-  </si>
-  <si>
-    <t>theo hợp đồng lao động đã ký kết.</t>
-  </si>
-  <si>
-    <t>- Người lao động đọc kỹ, hiểu rõ và cam kết thực hiện các điều khoản và quy định ghi tại Hợp đồng lao động.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐIỀU 7: ĐIỀU KHOẢN THI HÀNH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Những vấn đề về lao động không ghi trong hợp đồng này thì áp dụng theo quy định của Nội quy công ty, Thoả ước lao động </t>
-  </si>
-  <si>
-    <t>tập thể hoặc quy định của pháp luật có liên quan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hợp đồng lao động này được làm thành hai (02) bản có giá trị ngang nhau, mỗi bên giữ một (01) bản. Trong trường hợp có bất </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kỳ sửa đổi, bổ sung thì hai bên sẽ ký kết phụ lục hợp đồng. Khi hai bên ký kết Phụ lục hợp đồng lao động thì nội dung của Phụ </t>
-  </si>
-  <si>
-    <t>lục hợp đồng lao động cũng có giá trị như các nội dung của bản hợp đồng này.</t>
-  </si>
-  <si>
-    <t>Chữ ký người lao động</t>
-  </si>
-  <si>
-    <t>Thay mặt Công ty CP Sản xuất Nam Thuận</t>
-  </si>
-  <si>
-    <t>(Ký và ghi rõ họ tên)</t>
-  </si>
-  <si>
-    <t>…………………………………………..</t>
-  </si>
-  <si>
-    <t>Người được uỷ quyền</t>
-  </si>
-  <si>
-    <t>Họ tên:</t>
-  </si>
-  <si>
-    <t>Vị trí: Trưởng phòng Hành chính Nhân sự</t>
-  </si>
-  <si>
-    <t>ĐIỀU 4: NGHĨA VỤ VÀ QUYỀN HẠN CỦA NGƯỜI LAO ĐỘNG</t>
-  </si>
-  <si>
-    <t>Hợp đồng không xác định thời hạn</t>
-  </si>
-  <si>
-    <t>của pháp luật về lao động và quy định của bảo hiểm	.</t>
-  </si>
-  <si>
-    <t>cấp (nếu có) sẽ tự động thay đổi theo quy định mới.</t>
-  </si>
-  <si>
-    <t>Người lao động được khuyến khích bằng vật chất và tinh thần khi có thành tích trong công tác hoặc theo quy định của công ty.</t>
-  </si>
-  <si>
-    <t>Nếu người lao động không còn tiếp tục làm việc hoặc có đơn xin nghỉ việc đến ngày phát thưởng thì sẽ không được lĩnh thưởng_x000D_.</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,6 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,7 +1139,7 @@
   <dimension ref="A1:X138"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:X46"/>
+      <selection activeCell="E3" sqref="E3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1149,52 +1152,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="13" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="13" t="s">
-        <v>3</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
@@ -1214,7 +1217,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1224,7 +1227,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -1244,7 +1247,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1254,7 +1257,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1295,60 +1298,60 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
     </row>
     <row r="8" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -1379,7 +1382,7 @@
     <row r="9" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1407,11 +1410,11 @@
     <row r="10" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1423,12 +1426,12 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -1441,11 +1444,11 @@
     <row r="11" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1457,12 +1460,12 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -1475,13 +1478,13 @@
     <row r="12" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1505,33 +1508,33 @@
     <row r="13" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -1543,7 +1546,7 @@
     <row r="14" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1573,11 +1576,11 @@
     <row r="15" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1603,12 +1606,12 @@
     <row r="16" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -1619,11 +1622,11 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -1637,7 +1640,7 @@
     <row r="17" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1665,11 +1668,11 @@
     <row r="18" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1681,12 +1684,12 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -1699,12 +1702,12 @@
     <row r="19" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1715,12 +1718,12 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -1733,13 +1736,13 @@
     <row r="20" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1763,7 +1766,7 @@
     <row r="21" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1772,22 +1775,22 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -1799,7 +1802,7 @@
     <row r="22" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1827,7 +1830,7 @@
     <row r="23" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1855,7 +1858,7 @@
     <row r="24" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1883,7 +1886,7 @@
     <row r="25" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1891,7 +1894,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1913,7 +1916,7 @@
     <row r="26" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1940,8 +1943,8 @@
     </row>
     <row r="27" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="4" t="s">
-        <v>46</v>
+      <c r="B27" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1973,7 +1976,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1997,14 +2000,14 @@
     <row r="29" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -2027,14 +2030,14 @@
     <row r="30" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2057,7 +2060,7 @@
     <row r="31" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2085,7 +2088,7 @@
     <row r="32" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2113,7 +2116,7 @@
     <row r="33" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2141,7 +2144,7 @@
     <row r="34" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2169,7 +2172,7 @@
     <row r="35" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2223,7 +2226,7 @@
     <row r="37" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2251,7 +2254,7 @@
     <row r="38" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2279,14 +2282,14 @@
     <row r="39" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -2309,7 +2312,7 @@
     <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -2363,7 +2366,7 @@
     <row r="42" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2371,7 +2374,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -2393,7 +2396,7 @@
     <row r="43" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2421,7 +2424,7 @@
     <row r="44" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2449,7 +2452,7 @@
     <row r="45" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2477,7 +2480,7 @@
     <row r="46" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2505,7 +2508,7 @@
     <row r="47" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2533,7 +2536,7 @@
     <row r="48" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2561,7 +2564,7 @@
     <row r="49" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2574,7 +2577,7 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2591,7 +2594,7 @@
     <row r="50" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2619,7 +2622,7 @@
     <row r="51" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2647,7 +2650,7 @@
     <row r="52" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2675,7 +2678,7 @@
     <row r="53" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2703,7 +2706,7 @@
     <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2731,7 +2734,7 @@
     <row r="55" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2759,7 +2762,7 @@
     <row r="56" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2787,7 +2790,7 @@
     <row r="57" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2815,7 +2818,7 @@
     <row r="58" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2843,7 +2846,7 @@
     <row r="59" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2871,7 +2874,7 @@
     <row r="60" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2899,7 +2902,7 @@
     <row r="61" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2927,7 +2930,7 @@
     <row r="62" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2955,7 +2958,7 @@
     <row r="63" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2983,7 +2986,7 @@
     <row r="64" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -3011,7 +3014,7 @@
     <row r="65" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -3039,7 +3042,7 @@
     <row r="66" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -3067,7 +3070,7 @@
     <row r="67" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3095,7 +3098,7 @@
     <row r="68" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3123,7 +3126,7 @@
     <row r="69" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -3151,7 +3154,7 @@
     <row r="70" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3179,7 +3182,7 @@
     <row r="71" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -3207,7 +3210,7 @@
     <row r="72" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -3235,7 +3238,7 @@
     <row r="73" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3263,7 +3266,7 @@
     <row r="74" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3291,7 +3294,7 @@
     <row r="75" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3319,7 +3322,7 @@
     <row r="76" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3347,7 +3350,7 @@
     <row r="77" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3375,7 +3378,7 @@
     <row r="78" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3403,7 +3406,7 @@
     <row r="79" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3431,7 +3434,7 @@
     <row r="80" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3459,7 +3462,7 @@
     <row r="81" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3487,7 +3490,7 @@
     <row r="82" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3515,7 +3518,7 @@
     <row r="83" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3543,7 +3546,7 @@
     <row r="84" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3571,7 +3574,7 @@
     <row r="85" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3599,7 +3602,7 @@
     <row r="86" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3627,7 +3630,7 @@
     <row r="87" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3655,7 +3658,7 @@
     <row r="88" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3683,7 +3686,7 @@
     <row r="89" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3711,7 +3714,7 @@
     <row r="90" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3739,7 +3742,7 @@
     <row r="91" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3767,7 +3770,7 @@
     <row r="92" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3795,7 +3798,7 @@
     <row r="93" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3823,7 +3826,7 @@
     <row r="94" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3851,7 +3854,7 @@
     <row r="95" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3879,7 +3882,7 @@
     <row r="96" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3907,7 +3910,7 @@
     <row r="97" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -3935,7 +3938,7 @@
     <row r="98" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3963,7 +3966,7 @@
     <row r="99" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3991,7 +3994,7 @@
     <row r="100" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -4019,7 +4022,7 @@
     <row r="101" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -4047,7 +4050,7 @@
     <row r="102" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -4101,7 +4104,7 @@
     <row r="104" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -4129,7 +4132,7 @@
     <row r="105" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -4157,7 +4160,7 @@
     <row r="106" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -4185,7 +4188,7 @@
     <row r="107" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -4213,7 +4216,7 @@
     <row r="108" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -4241,7 +4244,7 @@
     <row r="109" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -4269,7 +4272,7 @@
     <row r="110" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -4297,7 +4300,7 @@
     <row r="111" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -4325,7 +4328,7 @@
     <row r="112" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -4353,7 +4356,7 @@
     <row r="113" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -4381,7 +4384,7 @@
     <row r="114" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -4409,7 +4412,7 @@
     <row r="115" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -4437,7 +4440,7 @@
     <row r="116" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4465,7 +4468,7 @@
     <row r="117" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -4493,7 +4496,7 @@
     <row r="118" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -4521,7 +4524,7 @@
     <row r="119" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -4549,7 +4552,7 @@
     <row r="120" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -4577,7 +4580,7 @@
     <row r="121" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -4605,7 +4608,7 @@
     <row r="122" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -4633,7 +4636,7 @@
     <row r="123" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4661,7 +4664,7 @@
     <row r="124" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -4689,7 +4692,7 @@
     <row r="125" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -4717,7 +4720,7 @@
     <row r="126" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -4745,7 +4748,7 @@
     <row r="127" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -4773,7 +4776,7 @@
     <row r="128" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -4801,7 +4804,7 @@
     <row r="129" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -4814,7 +4817,7 @@
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
@@ -4831,7 +4834,7 @@
     <row r="130" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -4965,7 +4968,7 @@
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -4978,7 +4981,7 @@
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
@@ -5006,7 +5009,7 @@
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
@@ -5034,11 +5037,11 @@
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P137" s="4"/>
       <c r="Q137" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R137" s="7"/>
       <c r="S137" s="7"/>
@@ -5064,7 +5067,7 @@
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
@@ -5257,7 +5260,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A23:Y24 A72:Y139 A71 C71:Y71 A41:Y46 A40:G40 Y40 A30:Y39 A29:G29 Y29 A26:Y28 A25:G25 I25:Y25 A1:Y21 A69:Y70 A68 C68:Y68 A63:Y67 A62 C62:Y62 A49:Y61 A47 C47:Y47 A48 C48:Y48" numberStoredAsText="1"/>
+    <ignoredError sqref="A23:Y24 A72:Y139 A71 C71:Y71 A41:Y46 A40:G40 Y40 A30:Y39 A29:G29 Y29 A26:Y26 A25:G25 I25:Y25 A1:Y1 A69:Y70 A68 C68:Y68 A63:Y67 A62 C62:Y62 A49:Y61 A47 C47:Y47 A48 C48:Y48 A28:Y28 A27 Y27 A16:Y21 A15:C15 Y15 A3:Y14 A2:D2 M2:Y2" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
